--- a/게임 디자인/DB/장비DB.xlsx
+++ b/게임 디자인/DB/장비DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\EXLIX\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\샴블즈\Exlix\게임 디자인\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A31966E-C3AB-454F-9232-C9A60AEF9732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A04C44A-91BD-41F2-941D-1719617E0F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16650" yWindow="3450" windowWidth="21690" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13905" yWindow="105" windowWidth="24285" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>장비번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민첩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수능력</t>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,99 +67,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의료키드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민첩을 5증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조잡한 권총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조잡한 권총이지만 급할때는 쓸만할지도?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각종 의료도구들이 들어가있는 의료키트!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 회복카드는 체력을 1 더 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마나볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 마나량을 1증가 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신기하게 생긴 도구이다. 왠지 힘이난다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가벼운 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력을 3증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정카드속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정카드이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장신구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안경</t>
+  </si>
+  <si>
+    <t>헬멧</t>
+  </si>
+  <si>
+    <t>안전모</t>
+  </si>
+  <si>
+    <t>가죽 갑옷</t>
+  </si>
+  <si>
+    <t>무거운 갑옷</t>
+  </si>
+  <si>
+    <t>효율의 갑주</t>
+  </si>
+  <si>
+    <t>가벼운 바지</t>
+  </si>
+  <si>
+    <t>나뭇잎 바지</t>
+  </si>
+  <si>
+    <t>마법 팬츠</t>
+  </si>
+  <si>
+    <t>너클</t>
+  </si>
+  <si>
+    <t>피의 단검</t>
+  </si>
+  <si>
+    <t>제국의 검</t>
+  </si>
+  <si>
+    <t>탄생석</t>
+  </si>
+  <si>
+    <t>저주받은 반지</t>
+  </si>
+  <si>
+    <t>조준경</t>
+  </si>
+  <si>
+    <t>스킬 북</t>
+  </si>
+  <si>
+    <t>에너지 박스</t>
+  </si>
+  <si>
+    <t>의학 키트</t>
+  </si>
+  <si>
+    <t>지능을 3 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>지능을 2 증가 시키고 체력을 2 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>머시너즈 카드를 사용할 때마다 20% 확률로 마나를 1 회복합니다.</t>
+  </si>
+  <si>
+    <t>체력을 3 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>체력을 6 증가 시키고 민첩을 2감소 시킵니다.</t>
+  </si>
+  <si>
+    <t>모든 방어 카드는 방어도를 1더 획득합니다.</t>
+  </si>
+  <si>
+    <t>민첩을 3 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>민첩을 2 증가 시키고, 그린매스의 회복카드는 체력을 2 더 회복합니다.</t>
+  </si>
+  <si>
+    <t>싸이클 카드는 마나를 1 더 회복합니다</t>
+  </si>
+  <si>
+    <t>힘을 3 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>힘을 3 증가 시키고 적을 처치 할 때마다 마나를 전부 회복합니다.</t>
+  </si>
+  <si>
+    <t>모든 제국 카드는 공격력이 1 증가합니다</t>
+  </si>
+  <si>
+    <t>모든 스텟을 1 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>체력을 3 감소 시키고 힘, 민첩, 지능을 2 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>ROAK 공격 카드의 공격력이 20% 증가합니다.</t>
+  </si>
+  <si>
+    <t>쿨 타임이 4턴 이상인 스킬의 쿨 타임은 1턴 감소합니다.</t>
+  </si>
+  <si>
+    <t>최대 마나를 1 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>모든 회복 카드는 체력을 1 더 회복합니다.</t>
   </si>
   <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무거운 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력을 7증가시키고 민첩을 3감소시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조잡한 재료로 만들어진 가벼운 갑옷이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조잡한 재료를 덛댄 무겁기만한 갑옷이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머시너즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정카드타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린매스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가벼운 바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뭇잎 바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 팬츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 처치시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피의 단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제국의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,19 +355,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비룡쌍도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘과 민첩을 7씩 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누군가 보검으로 보관하던 쌍검이다.&lt;br/&gt;검에 달린 화려한 장식이 시선을 끈다.</t>
+    <t>ROAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조준경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4턴 이상인 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의학키트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,11 +423,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -507,36 +708,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="40.625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -548,169 +752,382 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
